--- a/Resultados_de_Licitacoes_e_Conjecturas_v2.xlsx
+++ b/Resultados_de_Licitacoes_e_Conjecturas_v2.xlsx
@@ -37,10 +37,10 @@
     <t xml:space="preserve">Media_pre</t>
   </si>
   <si>
+    <t xml:space="preserve">Media_saneada_pre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mediana_pre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media_saneada_pre</t>
   </si>
   <si>
     <t xml:space="preserve">Mediana_saneada_pre</t>
@@ -205,18 +205,17 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
   </cols>
@@ -264,10 +263,10 @@
         <v>30278</v>
       </c>
       <c r="F2" s="0" t="n">
+        <v>30278</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>30342</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>30278</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>30342</v>
@@ -290,10 +289,10 @@
         <v>29286</v>
       </c>
       <c r="F3" s="0" t="n">
+        <v>29286</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>26250</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>29286</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>26250</v>
@@ -342,10 +341,10 @@
         <v>2505</v>
       </c>
       <c r="F5" s="0" t="n">
+        <v>2505</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>2912</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>2505</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>2912</v>
@@ -368,10 +367,10 @@
         <v>25530435</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>25530435</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>25350050</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>25530435</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>25350050</v>
@@ -394,10 +393,10 @@
         <v>110456</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>110456</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>108640</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>110456</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>108640</v>
@@ -420,10 +419,10 @@
         <v>2659</v>
       </c>
       <c r="F8" s="0" t="n">
+        <v>1729</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>1885</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1729</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1884</v>
@@ -446,10 +445,10 @@
         <v>28489033</v>
       </c>
       <c r="F9" s="0" t="n">
+        <v>28489033</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>27343039</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>28489033</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>27343039</v>
@@ -472,10 +471,10 @@
         <v>280690</v>
       </c>
       <c r="F10" s="0" t="n">
+        <v>280690</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>233449</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>280690</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>233449</v>
@@ -498,10 +497,10 @@
         <v>517458</v>
       </c>
       <c r="F11" s="0" t="n">
+        <v>517458</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>415610</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>517458</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>415610</v>
@@ -524,10 +523,10 @@
         <v>89788</v>
       </c>
       <c r="F12" s="0" t="n">
+        <v>75384</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>78112</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>75384</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>75434</v>
@@ -576,10 +575,10 @@
         <v>49313</v>
       </c>
       <c r="F14" s="0" t="n">
+        <v>40298</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>44373</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>40298</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>32826</v>
@@ -654,10 +653,10 @@
         <v>1444968</v>
       </c>
       <c r="F17" s="0" t="n">
+        <v>1444968</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>1594906</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1444968</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1594906</v>
